--- a/figures/rtcvssim.xlsx
+++ b/figures/rtcvssim.xlsx
@@ -795,12 +795,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="120650752"/>
-        <c:axId val="105830016"/>
-        <c:axId val="120591616"/>
+        <c:axId val="122366976"/>
+        <c:axId val="106813056"/>
+        <c:axId val="122303744"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="120650752"/>
+        <c:axId val="122366976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105830016"/>
+        <c:crossAx val="106813056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105830016"/>
+        <c:axId val="106813056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +829,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120650752"/>
+        <c:crossAx val="122366976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="120591616"/>
+        <c:axId val="122303744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,18 +851,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105830016"/>
+        <c:crossAx val="106813056"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7149457567804024"/>
+          <c:y val="0.15124234470691167"/>
+          <c:w val="0.13227646544181978"/>
+          <c:h val="0.66973753280839898"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -872,7 +881,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -907,6 +916,65 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1849187">
+          <a:off x="5972176" y="5267325"/>
+          <a:ext cx="1190625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>Packet Length</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1202,7 +1270,7 @@
   <dimension ref="B3:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/figures/rtcvssim.xlsx
+++ b/figures/rtcvssim.xlsx
@@ -108,8 +108,8 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="50"/>
+      <c:rotX val="20"/>
+      <c:rotY val="60"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -795,12 +795,12 @@
         <c:gapWidth val="62"/>
         <c:gapDepth val="39"/>
         <c:shape val="box"/>
-        <c:axId val="122366976"/>
-        <c:axId val="106813056"/>
-        <c:axId val="122303744"/>
+        <c:axId val="122891264"/>
+        <c:axId val="113825408"/>
+        <c:axId val="122823936"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122366976"/>
+        <c:axId val="122891264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106813056"/>
+        <c:crossAx val="113825408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106813056"/>
+        <c:axId val="113825408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +829,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122366976"/>
+        <c:crossAx val="122891264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="122303744"/>
+        <c:axId val="122823936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106813056"/>
+        <c:crossAx val="113825408"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -866,8 +866,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7149457567804024"/>
-          <c:y val="0.15124234470691167"/>
+          <c:x val="0.77327909011373563"/>
+          <c:y val="0.11420530766987459"/>
           <c:w val="0.13227646544181978"/>
           <c:h val="0.66973753280839898"/>
         </c:manualLayout>
@@ -921,15 +921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
+      <xdr:colOff>176532</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>147957</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -937,9 +937,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1849187">
-          <a:off x="5972176" y="5267325"/>
-          <a:ext cx="1190625" cy="342900"/>
+        <a:xfrm rot="1928589">
+          <a:off x="5662932" y="5248447"/>
+          <a:ext cx="1190625" cy="216379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,9 +969,72 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>Packet Length</a:t>
+            <a:t>Packet Length (flits)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4642320" y="4099395"/>
+          <a:ext cx="1759300" cy="271760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>End-to-end latency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> (cycles)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1269,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/figures/rtcvssim.xlsx
+++ b/figures/rtcvssim.xlsx
@@ -11,7 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="145621" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -137,7 +140,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1 (sim)</c:v>
+                  <c:v>f4(sim)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -150,28 +153,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -183,28 +186,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,7 +222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1(RTC)</c:v>
+                  <c:v>f4(RTC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -232,28 +235,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,28 +268,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,7 +304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f2(sim)</c:v>
+                  <c:v>f1 (sim)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -314,28 +317,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,28 +350,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,7 +386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f2(RTC)</c:v>
+                  <c:v>f1(RTC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -396,28 +399,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,28 +432,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,7 +468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f4(sim)</c:v>
+                  <c:v>f2(sim)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,28 +481,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,28 +514,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f4(RTC)</c:v>
+                  <c:v>f2(RTC)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,28 +563,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,28 +596,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,28 +645,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,28 +678,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,28 +727,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,28 +760,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,15 +795,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="62"/>
-        <c:gapDepth val="39"/>
+        <c:gapWidth val="59"/>
+        <c:gapDepth val="61"/>
         <c:shape val="box"/>
-        <c:axId val="122891264"/>
-        <c:axId val="113825408"/>
-        <c:axId val="122823936"/>
+        <c:axId val="258253824"/>
+        <c:axId val="301274752"/>
+        <c:axId val="258577024"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122891264"/>
+        <c:axId val="258253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113825408"/>
+        <c:crossAx val="301274752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113825408"/>
+        <c:axId val="301274752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122891264"/>
+        <c:crossAx val="258253824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="122823936"/>
+        <c:axId val="258577024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,20 +846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="5400000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113825408"/>
+        <c:crossAx val="301274752"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -866,8 +856,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77327909011373563"/>
-          <c:y val="0.11420530766987459"/>
+          <c:x val="0.77883464566929128"/>
+          <c:y val="0.1327238261883931"/>
           <c:w val="0.13227646544181978"/>
           <c:h val="0.66973753280839898"/>
         </c:manualLayout>
@@ -881,7 +871,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -891,19 +881,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -921,15 +911,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>176532</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104947</xdr:rowOff>
+      <xdr:colOff>188267</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>147957</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130826</xdr:rowOff>
+      <xdr:colOff>394075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -938,8 +928,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1928589">
-          <a:off x="5662932" y="5248447"/>
-          <a:ext cx="1190625" cy="216379"/>
+          <a:off x="5674667" y="5416849"/>
+          <a:ext cx="1425008" cy="211507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,22 +972,22 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>509290</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>117125</xdr:rowOff>
+      <xdr:rowOff>88550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="4642320" y="4099395"/>
+          <a:off x="4642320" y="4070820"/>
           <a:ext cx="1759300" cy="271760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1028,7 +1018,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>End-to-end latency</a:t>
+            <a:t>End-to-end delay</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -1041,6 +1031,282 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>RTC(1/6)</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DNC(1/6)</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>RTC(1/5)</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>DNC(1/5)</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>RTC(1/4)</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>DNC(1/4)</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>RTC(1/3)</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>DNC(1/3)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>8</v>
+          </cell>
+          <cell r="C4">
+            <v>44</v>
+          </cell>
+          <cell r="D4">
+            <v>64.239999999999995</v>
+          </cell>
+          <cell r="E4">
+            <v>52</v>
+          </cell>
+          <cell r="F4">
+            <v>68.125</v>
+          </cell>
+          <cell r="G4">
+            <v>60</v>
+          </cell>
+          <cell r="H4">
+            <v>74.888000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>68</v>
+          </cell>
+          <cell r="J4">
+            <v>89.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>7</v>
+          </cell>
+          <cell r="C5">
+            <v>41</v>
+          </cell>
+          <cell r="D5">
+            <v>60.16</v>
+          </cell>
+          <cell r="E5">
+            <v>48</v>
+          </cell>
+          <cell r="F5">
+            <v>63.75</v>
+          </cell>
+          <cell r="G5">
+            <v>55</v>
+          </cell>
+          <cell r="H5">
+            <v>70</v>
+          </cell>
+          <cell r="I5">
+            <v>62</v>
+          </cell>
+          <cell r="J5">
+            <v>83.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+          <cell r="C6">
+            <v>38</v>
+          </cell>
+          <cell r="D6">
+            <v>56.08</v>
+          </cell>
+          <cell r="E6">
+            <v>44</v>
+          </cell>
+          <cell r="F6">
+            <v>59.375</v>
+          </cell>
+          <cell r="G6">
+            <v>50</v>
+          </cell>
+          <cell r="H6">
+            <v>65.111000000000004</v>
+          </cell>
+          <cell r="I6">
+            <v>57</v>
+          </cell>
+          <cell r="J6">
+            <v>77.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+          <cell r="C7">
+            <v>40</v>
+          </cell>
+          <cell r="D7">
+            <v>52</v>
+          </cell>
+          <cell r="E7">
+            <v>45</v>
+          </cell>
+          <cell r="F7">
+            <v>55</v>
+          </cell>
+          <cell r="G7">
+            <v>45</v>
+          </cell>
+          <cell r="H7">
+            <v>60.222000000000001</v>
+          </cell>
+          <cell r="I7">
+            <v>55</v>
+          </cell>
+          <cell r="J7">
+            <v>71.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8">
+            <v>36</v>
+          </cell>
+          <cell r="D8">
+            <v>47.92</v>
+          </cell>
+          <cell r="E8">
+            <v>40</v>
+          </cell>
+          <cell r="F8">
+            <v>50.625</v>
+          </cell>
+          <cell r="G8">
+            <v>44</v>
+          </cell>
+          <cell r="H8">
+            <v>55.33</v>
+          </cell>
+          <cell r="I8">
+            <v>52</v>
+          </cell>
+          <cell r="J8">
+            <v>65.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>3</v>
+          </cell>
+          <cell r="C9">
+            <v>35</v>
+          </cell>
+          <cell r="D9">
+            <v>43.84</v>
+          </cell>
+          <cell r="E9">
+            <v>35</v>
+          </cell>
+          <cell r="F9">
+            <v>46.25</v>
+          </cell>
+          <cell r="G9">
+            <v>39</v>
+          </cell>
+          <cell r="H9">
+            <v>50.444000000000003</v>
+          </cell>
+          <cell r="I9">
+            <v>50</v>
+          </cell>
+          <cell r="J9">
+            <v>59.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>2</v>
+          </cell>
+          <cell r="C10">
+            <v>32</v>
+          </cell>
+          <cell r="D10">
+            <v>39.76</v>
+          </cell>
+          <cell r="E10">
+            <v>33</v>
+          </cell>
+          <cell r="F10">
+            <v>41.875</v>
+          </cell>
+          <cell r="G10">
+            <v>36</v>
+          </cell>
+          <cell r="H10">
+            <v>45.555999999999997</v>
+          </cell>
+          <cell r="I10">
+            <v>45</v>
+          </cell>
+          <cell r="J10">
+            <v>53.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>1</v>
+          </cell>
+          <cell r="C11">
+            <v>28</v>
+          </cell>
+          <cell r="D11">
+            <v>35.68</v>
+          </cell>
+          <cell r="E11">
+            <v>30</v>
+          </cell>
+          <cell r="F11">
+            <v>37.5</v>
+          </cell>
+          <cell r="G11">
+            <v>34</v>
+          </cell>
+          <cell r="H11">
+            <v>40.667000000000002</v>
+          </cell>
+          <cell r="I11">
+            <v>41</v>
+          </cell>
+          <cell r="J11">
+            <v>47.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,30 +1598,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:10">
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1366,234 +1632,234 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
         <v>42</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>36</v>
       </c>
-      <c r="H4">
-        <v>37</v>
-      </c>
-      <c r="I4">
-        <v>38</v>
-      </c>
       <c r="J4">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
         <v>34</v>
       </c>
-      <c r="H5">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <v>27</v>
-      </c>
       <c r="J5">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J6">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
       <c r="J7">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
         <v>29</v>
       </c>
-      <c r="F9">
-        <v>32</v>
-      </c>
       <c r="G9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>22</v>
+      </c>
+      <c r="J11">
         <v>30</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
